--- a/pandas_numpy/Files/rediff.xlsx
+++ b/pandas_numpy/Files/rediff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,7 +505,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>White Organic Retail</t>
+          <t>Veer Global Infracon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -514,19 +514,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.9</v>
+        <v>39.7</v>
       </c>
       <c r="D4" t="n">
-        <v>35.05</v>
+        <v>43.65</v>
       </c>
       <c r="E4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ANG Lifesciences Ind</t>
+          <t>White Organic Retail</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -535,19 +535,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>92.2</v>
+        <v>31.9</v>
       </c>
       <c r="D5" t="n">
-        <v>101</v>
+        <v>35.05</v>
       </c>
       <c r="E5" t="n">
-        <v>9.539999999999999</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aditya Consumer Mark</t>
+          <t>ANG Lifesciences Ind</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -556,19 +556,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.25</v>
+        <v>92.2</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="E6" t="n">
-        <v>9.09</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anmol India</t>
+          <t>Aditya Consumer Mark</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.90000000000001</v>
+        <v>19.25</v>
       </c>
       <c r="D7" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>7.63</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anuroop Packaging Lt</t>
+          <t>Anmol India</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.95</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.5</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
-        <v>6.92</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="9">
@@ -622,16 +622,16 @@
         <v>802.5</v>
       </c>
       <c r="D9" t="n">
-        <v>850</v>
+        <v>862</v>
       </c>
       <c r="E9" t="n">
-        <v>5.92</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bansal Roofing Produ</t>
+          <t>Innovators Facade Sy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -640,19 +640,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60</v>
+        <v>39.2</v>
       </c>
       <c r="D10" t="n">
-        <v>63.5</v>
+        <v>41.95</v>
       </c>
       <c r="E10" t="n">
-        <v>5.83</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Akshar Spintex</t>
+          <t>Bansal Roofing Produ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -661,19 +661,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.5</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>10.05</v>
+        <v>63.5</v>
       </c>
       <c r="E11" t="n">
-        <v>5.79</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Shubham Polyspin</t>
+          <t>Akshar Spintex</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,19 +682,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.2</v>
+        <v>9.5</v>
       </c>
       <c r="D12" t="n">
-        <v>68.40000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="E12" t="n">
-        <v>4.91</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unishire Urban Infra</t>
+          <t>Shubham Polyspin</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -703,19 +703,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.35</v>
+        <v>65.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.41</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>4.44</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sheetal Cool Product</t>
+          <t>Unishire Urban Infra</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -724,19 +724,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>161</v>
+        <v>1.35</v>
       </c>
       <c r="D14" t="n">
-        <v>168</v>
+        <v>1.41</v>
       </c>
       <c r="E14" t="n">
-        <v>4.35</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inflame Appliances</t>
+          <t>Sheetal Cool Product</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>178.35</v>
+        <v>161</v>
       </c>
       <c r="D15" t="n">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E15" t="n">
-        <v>3.73</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vanta Bioscience</t>
+          <t>Inflame Appliances</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>154</v>
+        <v>178.35</v>
       </c>
       <c r="D16" t="n">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="E16" t="n">
-        <v>2.6</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dolfin Rubbers</t>
+          <t>Prime Fresh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -787,19 +787,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="D17" t="n">
-        <v>46.8</v>
+        <v>175</v>
       </c>
       <c r="E17" t="n">
-        <v>1.74</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Race Eco Chain</t>
+          <t>Vanta Bioscience</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>254.75</v>
+        <v>154</v>
       </c>
       <c r="D18" t="n">
-        <v>258.9</v>
+        <v>158</v>
       </c>
       <c r="E18" t="n">
-        <v>1.63</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Knowledge Marine&amp;Eng</t>
+          <t>Galactico Corporate</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19" t="n">
-        <v>37.45</v>
+        <v>47</v>
       </c>
       <c r="E19" t="n">
-        <v>1.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prime Fresh</t>
+          <t>HKG Ltd</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -850,19 +850,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>169</v>
+        <v>41.1</v>
       </c>
       <c r="D20" t="n">
-        <v>171</v>
+        <v>41.85</v>
       </c>
       <c r="E20" t="n">
-        <v>1.18</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HKG Ltd</t>
+          <t>Race Eco Chain</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -871,19 +871,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>41.1</v>
+        <v>254.75</v>
       </c>
       <c r="D21" t="n">
-        <v>41.4</v>
+        <v>258.9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.73</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Axita Cotton</t>
+          <t>Ashapuri Gold Ornam</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -892,19 +892,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>41.8</v>
+        <v>44</v>
       </c>
       <c r="D22" t="n">
-        <v>42.1</v>
+        <v>44.6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.72</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Affordable Robotic</t>
+          <t>Knowledge Marine&amp;Eng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -913,19 +913,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>94.5</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>95</v>
+        <v>37.45</v>
       </c>
       <c r="E23" t="n">
-        <v>0.53</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GKP Printing &amp; Pack</t>
+          <t>Dolfin Rubbers</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -934,19 +934,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>29.85</v>
+        <v>46</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>46.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Poojawestern Metalik</t>
+          <t>Affordable Robotic</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -955,19 +955,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25.1</v>
+        <v>94.5</v>
       </c>
       <c r="D25" t="n">
-        <v>25.2</v>
+        <v>95</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VMV Holidays Ltd.</t>
+          <t>GKP Printing &amp; Pack</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -976,33 +976,75 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10.32</v>
+        <v>29.85</v>
       </c>
       <c r="D26" t="n">
-        <v>10.33</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Axita Cotton</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>42</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Poojawestern Metalik</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>A-1 Acid</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>102.6</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>102.7</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E29" t="n">
         <v>0.1</v>
       </c>
     </row>
